--- a/DATI/DATI FANTACALCIO.xlsx
+++ b/DATI/DATI FANTACALCIO.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rocco Alessio\Documents\GitHub\Fantacalcio\DATI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6742CB7A-BC5F-4CAA-8AF4-9C5F6B64D362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{191A0A9B-45E8-446D-969A-8512FC04230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7C5CFD9C-B36A-4F76-B453-5561E27EA7D7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{7C5CFD9C-B36A-4F76-B453-5561E27EA7D7}"/>
   </bookViews>
   <sheets>
     <sheet name="SQUADRE_FANTAECR" sheetId="1" r:id="rId1"/>
     <sheet name="Statistiche_Fantacalcio" sheetId="2" r:id="rId2"/>
     <sheet name="Classifica Fair Play" sheetId="3" r:id="rId3"/>
+    <sheet name="Punteggio_Giornata" sheetId="4" r:id="rId4"/>
+    <sheet name="Ripeilogo_Punteggi_Giornata" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="12" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="14" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3947" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4302" uniqueCount="791">
   <si>
     <t>Ruolo</t>
   </si>
@@ -2407,6 +2410,21 @@
   </si>
   <si>
     <t>Somma di Punteggio Fair Play</t>
+  </si>
+  <si>
+    <t>PUNTEGGIO</t>
+  </si>
+  <si>
+    <t>GIORNATA</t>
+  </si>
+  <si>
+    <t>VINCITORE DI GIORNATA</t>
+  </si>
+  <si>
+    <t>Totale complessivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> VINCITORE DI GIORNATA</t>
   </si>
 </sst>
 </file>
@@ -2491,7 +2509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2509,14 +2527,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Normale 2" xfId="1" xr:uid="{8FAAC71F-7E21-40B1-9F84-CF4EDA449798}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2803,7 +2878,47 @@
         <n v="2"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Punteggio Fair Play" numFmtId="0" formula="(Amm *0.5)+(Esp *2)" databaseField="0"/>
+    <cacheField name="Punteggio Fair Play" numFmtId="0" formula="(Amm*0.5)+(Esp*2)" databaseField="0"/>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Rocco Alessio" refreshedDate="45774.03518402778" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="336" xr:uid="{35263A6E-6D90-4A08-872A-45880675A018}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Punteggio_Giornata"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="SQUADRA FANTAECR" numFmtId="0">
+      <sharedItems count="12">
+        <s v="AS-Ghelas"/>
+        <s v="DOLOMITI 23"/>
+        <s v="BIRRAREAL"/>
+        <s v="SPORTING GIS"/>
+        <s v="GRIFONE F.C."/>
+        <s v="LA Storta"/>
+        <s v="DINAMO PIGNOLA"/>
+        <s v="ASTON BIRRA"/>
+        <s v="Trinacria 2024"/>
+        <s v="LOWCOST"/>
+        <s v="FC BELLA FRESCA"/>
+        <s v="Torino Granata"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PUNTEGGIO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="50.5" maxValue="92"/>
+    </cacheField>
+    <cacheField name="GIORNATA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="28"/>
+    </cacheField>
+    <cacheField name="VINCITORE DI GIORNATA" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
   </cacheFields>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -9970,8 +10085,2029 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="336">
+  <r>
+    <x v="0"/>
+    <n v="71.5"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="63"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="67.5"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="65"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="64.5"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="64"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="64"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="69.5"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="70.5"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="74"/>
+    <n v="1"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="68.5"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="70"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="72.5"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="84.5"/>
+    <n v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="71.5"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="70.5"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="71"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="73"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="84.5"/>
+    <n v="2"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72.5"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="82"/>
+    <n v="2"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64.5"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="76"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="77"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="62.5"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="77"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="81"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="66"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="92"/>
+    <n v="3"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="72.5"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="62"/>
+    <n v="3"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="78.5"/>
+    <n v="4"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="77"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="70.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="73.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="72.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="73.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="61.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="66"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="62"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="70.5"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="62"/>
+    <n v="4"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="76.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="59"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="79"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="79.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="78"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="63.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="61.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="88.5"/>
+    <n v="5"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="72.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="85.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="64.5"/>
+    <n v="5"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="92"/>
+    <n v="6"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="79"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="75"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="76"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="63.5"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="70"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="65"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="70"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="75"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="63"/>
+    <n v="6"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="72"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="59.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="78"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="67"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="61.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="68.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="69.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="65.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="74.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="69.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="83"/>
+    <n v="7"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="68.5"/>
+    <n v="7"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="69.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="73"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="62"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="71.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="76.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="75"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="65"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="75.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="66"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="59.5"/>
+    <n v="8"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="83.5"/>
+    <n v="8"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="76"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="74"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="64.5"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="66.5"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="65"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="73"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="80.5"/>
+    <n v="9"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="75.5"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="78"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="77"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="77"/>
+    <n v="9"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="65.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="65"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="66.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="64"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="68.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="73.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="83"/>
+    <n v="10"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="74"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="69.5"/>
+    <n v="10"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="68.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="70"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="71.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="71.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="68"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="65.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="70"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="74.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72.5"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="63"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="74"/>
+    <n v="11"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="76.5"/>
+    <n v="11"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="70"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="68.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="70.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="73"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="75.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="72"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="64.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="78.5"/>
+    <n v="12"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="62.5"/>
+    <n v="12"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="74.5"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="83.5"/>
+    <n v="13"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="62"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="72.5"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="78"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="64"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="72"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="69"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="67.5"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="75"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="80.5"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="13"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="61.5"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="74"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="77.5"/>
+    <n v="14"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="63"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72.5"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="73"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="75"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="64.5"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="75"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="61.5"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="68.5"/>
+    <n v="14"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="66.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="69.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="68.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="65"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="66.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="71.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="65.5"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="74"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="75.5"/>
+    <n v="15"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="67"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="71"/>
+    <n v="15"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="64.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="78.5"/>
+    <n v="16"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="69.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="78.5"/>
+    <n v="16"/>
+    <n v="0.5"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="69.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="70.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="72.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="50.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="72"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="64"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="71.5"/>
+    <n v="16"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="52.5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="74.5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="60"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="74"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="76"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="82"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="81"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="60.5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="74"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="70.5"/>
+    <n v="17"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="86"/>
+    <n v="17"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="61"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="73"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="78.5"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="88"/>
+    <n v="18"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="72"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="72"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="63"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="71.5"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="68"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68.5"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="66"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="65"/>
+    <n v="18"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="70.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="64"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="58"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="67"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="83"/>
+    <n v="19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="62.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="69.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="70.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="73.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="65.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="73.5"/>
+    <n v="19"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="89"/>
+    <n v="20"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="76.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="72"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="66.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="74.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="56"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="73"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="74.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="65.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="73.5"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="83"/>
+    <n v="20"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="74"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="78"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="64.5"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="72"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="69"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="65.5"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="65.5"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="70"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="66.5"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="67"/>
+    <n v="21"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="89.5"/>
+    <n v="21"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="71.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="74.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="78.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="65.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="69"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="71"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="65.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="82.5"/>
+    <n v="22"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="67"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="63.5"/>
+    <n v="22"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="73.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="66"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="69"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="70"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="65.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="61.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="73.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="75.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="66.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="66.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="78"/>
+    <n v="23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="67.5"/>
+    <n v="23"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="74.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="75.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="73.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="65.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="80.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="61"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="67"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="83"/>
+    <n v="24"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="66.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="69.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="51.5"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="73"/>
+    <n v="24"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="68"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="66"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="77"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="71.5"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="58"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="61"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="80.5"/>
+    <n v="25"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="79"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="73"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="74"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="59.5"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="63.5"/>
+    <n v="25"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="71"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="74.5"/>
+    <n v="26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="68.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="69.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="67.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="65.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="70.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="72"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="53"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="73"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="61.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="69.5"/>
+    <n v="26"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="79"/>
+    <n v="27"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="67"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="68"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="63.5"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="65.5"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="74.5"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="66.5"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="70.5"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="66"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="71"/>
+    <n v="27"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="81.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <n v="70"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <n v="63"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <n v="75"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="82.5"/>
+    <n v="28"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="68.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <n v="78.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <n v="65.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <n v="69.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <n v="59"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="74.5"/>
+    <n v="28"/>
+    <n v="0"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D33DD302-6E8C-41D6-840A-CA4958C09821}" name="Tabella pivot1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Squadra Fanta ECR">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D33DD302-6E8C-41D6-840A-CA4958C09821}" name="Tabella pivot1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Squadra Fanta ECR">
   <location ref="A1:D13" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="23">
     <pivotField showAll="0"/>
@@ -10095,8 +12231,104 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ADC9CFA6-4030-4F3F-9872-6A5BFE5DF9BF}" name="Tabella pivot1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="SQUADRA FANTAECR">
+  <location ref="A1:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="13">
+        <item x="0"/>
+        <item x="7"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="1"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name=" VINCITORE DI GIORNATA" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BE8C22F-A3F4-4AFC-852C-EA116DB625C8}" name="SQUADRE_FANTAECR" displayName="SQUADRE_FANTAECR" ref="A1:E301" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7BE8C22F-A3F4-4AFC-852C-EA116DB625C8}" name="SQUADRE_FANTAECR" displayName="SQUADRE_FANTAECR" ref="A1:E301" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:E301" xr:uid="{7BE8C22F-A3F4-4AFC-852C-EA116DB625C8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E301">
     <sortCondition ref="E2:E301"/>
@@ -10106,10 +12338,25 @@
     <tableColumn id="1" xr3:uid="{FBDF8F2D-6D2A-4B56-A718-6AEC5C2EFAAC}" name="Ruolo"/>
     <tableColumn id="2" xr3:uid="{62441B47-13E1-4791-8609-38F18944F7A9}" name="Calciatore"/>
     <tableColumn id="3" xr3:uid="{BEDFA5E6-BFE5-452C-A52F-F34563B1D2A4}" name="Squadra"/>
-    <tableColumn id="4" xr3:uid="{82FFC7D4-CFD8-42F0-85E3-09C8CD5F7129}" name="Costo" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{82FFC7D4-CFD8-42F0-85E3-09C8CD5F7129}" name="Costo" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{EE781AF2-98C7-4F7D-9C4A-4ED7B736CBF6}" name="SQUADRA FANTAECR"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F943C59-E6AB-4DFE-BB2D-709972D1012E}" name="PUNTEGGIO_GIORNATA" displayName="PUNTEGGIO_GIORNATA" ref="A1:D337" totalsRowShown="0">
+  <autoFilter ref="A1:D337" xr:uid="{4F943C59-E6AB-4DFE-BB2D-709972D1012E}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C7C39E4A-13BC-435C-B962-5F6393681677}" name="SQUADRA FANTAECR" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{EE181018-F2F1-4A0F-A2E0-3A54019D3025}" name="PUNTEGGIO" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{54C2D40E-0681-48BF-B6AF-B38F4B6A4FEE}" name="GIORNATA"/>
+    <tableColumn id="4" xr3:uid="{8F14F92F-D09A-42C4-A037-FB29588E072B}" name="VINCITORE DI GIORNATA" dataDxfId="2">
+      <calculatedColumnFormula>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -10428,12 +12675,58 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="438" row="7">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{5AA54AC2-5E20-4C32-BC04-3CEE1B4AE5B7}">
+  <we:reference id="wa200005502" version="1.0.0.11" store="it-IT" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005502" version="1.0.0.11" store="wa200005502" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="docId" value="&quot;6ykB2p-Wc0vL4Yqart5-U&quot;"/>
+  </we:properties>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+  <we:extLst>
+    <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
+      <we:customFunctionIdList>
+        <we:customFunctionIds>_xldudf_GPT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_LIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HLIST</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CLASSIFY</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TRANSLATE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EXTRACT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TAG</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_CONVERT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FORMAT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SUMMARIZE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_TABLE</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_FILL</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_SPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_HSPLIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_EDIT</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_MATCH</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_VISION</we:customFunctionIds>
+        <we:customFunctionIds>_xldudf_GPT_WEB</we:customFunctionIds>
+      </we:customFunctionIdList>
+    </a:ext>
+  </we:extLst>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC49BD3C-C7DC-4277-83A9-F4BE0796C8D7}">
   <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D301"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11749,7 +14042,7 @@
       <c r="D77" s="6">
         <v>1</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E77" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11766,7 +14059,7 @@
       <c r="D78" s="6">
         <v>10</v>
       </c>
-      <c r="E78" s="12" t="s">
+      <c r="E78" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11783,7 +14076,7 @@
       <c r="D79" s="6">
         <v>1</v>
       </c>
-      <c r="E79" s="12" t="s">
+      <c r="E79" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11800,7 +14093,7 @@
       <c r="D80" s="6">
         <v>17</v>
       </c>
-      <c r="E80" s="12" t="s">
+      <c r="E80" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11817,7 +14110,7 @@
       <c r="D81" s="6">
         <v>15</v>
       </c>
-      <c r="E81" s="12" t="s">
+      <c r="E81" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11834,7 +14127,7 @@
       <c r="D82" s="6">
         <v>61</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E82" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11851,7 +14144,7 @@
       <c r="D83" s="6">
         <v>50</v>
       </c>
-      <c r="E83" s="12" t="s">
+      <c r="E83" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11868,7 +14161,7 @@
       <c r="D84" s="6">
         <v>8</v>
       </c>
-      <c r="E84" s="12" t="s">
+      <c r="E84" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11885,7 +14178,7 @@
       <c r="D85" s="6">
         <v>13</v>
       </c>
-      <c r="E85" s="12" t="s">
+      <c r="E85" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11902,7 +14195,7 @@
       <c r="D86" s="6">
         <v>12</v>
       </c>
-      <c r="E86" s="12" t="s">
+      <c r="E86" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11919,7 +14212,7 @@
       <c r="D87" s="6">
         <v>11</v>
       </c>
-      <c r="E87" s="12" t="s">
+      <c r="E87" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11936,7 +14229,7 @@
       <c r="D88" s="6">
         <v>11</v>
       </c>
-      <c r="E88" s="12" t="s">
+      <c r="E88" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11953,7 +14246,7 @@
       <c r="D89" s="6">
         <v>70</v>
       </c>
-      <c r="E89" s="12" t="s">
+      <c r="E89" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11970,7 +14263,7 @@
       <c r="D90" s="6">
         <v>16</v>
       </c>
-      <c r="E90" s="12" t="s">
+      <c r="E90" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -11987,7 +14280,7 @@
       <c r="D91" s="6">
         <v>23</v>
       </c>
-      <c r="E91" s="12" t="s">
+      <c r="E91" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12004,7 +14297,7 @@
       <c r="D92" s="6">
         <v>25</v>
       </c>
-      <c r="E92" s="12" t="s">
+      <c r="E92" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12021,7 +14314,7 @@
       <c r="D93" s="6">
         <v>9</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12038,7 +14331,7 @@
       <c r="D94" s="6">
         <v>15</v>
       </c>
-      <c r="E94" s="12" t="s">
+      <c r="E94" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12055,7 +14348,7 @@
       <c r="D95" s="6">
         <v>9</v>
       </c>
-      <c r="E95" s="12" t="s">
+      <c r="E95" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12072,7 +14365,7 @@
       <c r="D96" s="6">
         <v>11</v>
       </c>
-      <c r="E96" s="12" t="s">
+      <c r="E96" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12089,7 +14382,7 @@
       <c r="D97" s="6">
         <v>22</v>
       </c>
-      <c r="E97" s="12" t="s">
+      <c r="E97" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12106,7 +14399,7 @@
       <c r="D98" s="6">
         <v>170</v>
       </c>
-      <c r="E98" s="12" t="s">
+      <c r="E98" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12123,7 +14416,7 @@
       <c r="D99" s="6">
         <v>228</v>
       </c>
-      <c r="E99" s="12" t="s">
+      <c r="E99" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12140,7 +14433,7 @@
       <c r="D100" s="6">
         <v>200</v>
       </c>
-      <c r="E100" s="12" t="s">
+      <c r="E100" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -12157,7 +14450,7 @@
       <c r="D101" s="6">
         <v>60</v>
       </c>
-      <c r="E101" s="12" t="s">
+      <c r="E101" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -53566,7 +55859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F87D3803-D299-4BD9-BAA8-F02011FBFFED}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
@@ -53599,13 +55892,13 @@
       <c r="A2" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2">
         <v>53</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2">
         <v>30.5</v>
       </c>
     </row>
@@ -53613,13 +55906,13 @@
       <c r="A3" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>56</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3">
         <v>32</v>
       </c>
     </row>
@@ -53627,13 +55920,13 @@
       <c r="A4" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>56</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4">
         <v>32</v>
       </c>
     </row>
@@ -53641,13 +55934,13 @@
       <c r="A5" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>65</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>32.5</v>
       </c>
     </row>
@@ -53655,13 +55948,13 @@
       <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>65</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
-      </c>
-      <c r="D6" s="11">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>32.5</v>
       </c>
     </row>
@@ -53669,13 +55962,13 @@
       <c r="A7" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>58</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>33</v>
       </c>
     </row>
@@ -53683,13 +55976,13 @@
       <c r="A8" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8">
         <v>51</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8">
         <v>33.5</v>
       </c>
     </row>
@@ -53697,13 +55990,13 @@
       <c r="A9" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9">
         <v>56</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9">
         <v>36</v>
       </c>
     </row>
@@ -53711,13 +56004,13 @@
       <c r="A10" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10">
         <v>74</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10">
         <v>39</v>
       </c>
     </row>
@@ -53725,13 +56018,13 @@
       <c r="A11" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11">
         <v>74</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11">
         <v>39</v>
       </c>
     </row>
@@ -53739,13 +56032,13 @@
       <c r="A12" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12">
         <v>74</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>43</v>
       </c>
     </row>
@@ -53753,14 +56046,5230 @@
       <c r="A13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13">
         <v>69</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>44.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9B41104-A695-4670-AC1D-C3481D48AEE4}">
+  <dimension ref="A1:D337"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A314" workbookViewId="0">
+      <selection sqref="A1:C337"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s">
+        <v>786</v>
+      </c>
+      <c r="C1" t="s">
+        <v>787</v>
+      </c>
+      <c r="D1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="12">
+        <v>63</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="12">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B6" s="12">
+        <v>72</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="12">
+        <v>64</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="12">
+        <v>64</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B10" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B11" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="12">
+        <v>85</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B13" s="12">
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$2:B$13),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15" s="12">
+        <v>70</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B19" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B20" s="12">
+        <v>68</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="12">
+        <v>71</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="12">
+        <v>73</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B23" s="12">
+        <v>84.5</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="12">
+        <v>82</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$14:B$25),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B27" s="12">
+        <v>76</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="12">
+        <v>77</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B29" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="12">
+        <v>77</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B31" s="12">
+        <v>65</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B32" s="12">
+        <v>63</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="12">
+        <v>81</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B34" s="12">
+        <v>66</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="12">
+        <v>92</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B37" s="12">
+        <v>62</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$26:B$37),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B38" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B39" s="12">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B40" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B44" s="12">
+        <v>71</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B45" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B46" s="12">
+        <v>66</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="12">
+        <v>62</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B48" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B49" s="12">
+        <v>62</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$38:B$49),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="12">
+        <v>76.5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B51" s="12">
+        <v>59</v>
+      </c>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="12">
+        <v>79</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B53" s="12">
+        <v>79.5</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="12">
+        <v>78</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B55" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" s="12">
+        <v>88.5</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+      <c r="D58">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B59" s="12">
+        <v>68</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+      <c r="D59">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B60" s="12">
+        <v>85.5</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+      <c r="D60">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$50:B$61),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B62" s="12">
+        <v>92</v>
+      </c>
+      <c r="C62">
+        <v>6</v>
+      </c>
+      <c r="D62">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B63" s="12">
+        <v>79</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B64" s="12">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>6</v>
+      </c>
+      <c r="D64">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B65" s="12">
+        <v>75</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B66" s="12">
+        <v>76</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+      <c r="D66">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B67" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B68" s="12">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+      <c r="D68">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B69" s="12">
+        <v>65</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B70" s="12">
+        <v>64</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+      <c r="D70">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="12">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+      <c r="D71">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B72" s="12">
+        <v>75</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+      <c r="D72">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="12">
+        <v>63</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+      <c r="D73">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$62:B$73),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="12">
+        <v>72</v>
+      </c>
+      <c r="C74">
+        <v>7</v>
+      </c>
+      <c r="D74">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B75" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="C75">
+        <v>7</v>
+      </c>
+      <c r="D75">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B76" s="12">
+        <v>78</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="12">
+        <v>67</v>
+      </c>
+      <c r="C77">
+        <v>7</v>
+      </c>
+      <c r="D77">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C78">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B79" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C79">
+        <v>7</v>
+      </c>
+      <c r="D79">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B80" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C80">
+        <v>7</v>
+      </c>
+      <c r="D80">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C81">
+        <v>7</v>
+      </c>
+      <c r="D81">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B82" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C82">
+        <v>7</v>
+      </c>
+      <c r="D82">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B83" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C83">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B84" s="12">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>7</v>
+      </c>
+      <c r="D84">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B85" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C85">
+        <v>7</v>
+      </c>
+      <c r="D85">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$74:B$85),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C86">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B87" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C87">
+        <v>8</v>
+      </c>
+      <c r="D87">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B88" s="12">
+        <v>73</v>
+      </c>
+      <c r="C88">
+        <v>8</v>
+      </c>
+      <c r="D88">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B89" s="12">
+        <v>62</v>
+      </c>
+      <c r="C89">
+        <v>8</v>
+      </c>
+      <c r="D89">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B90" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C90">
+        <v>8</v>
+      </c>
+      <c r="D90">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B91" s="12">
+        <v>76.5</v>
+      </c>
+      <c r="C91">
+        <v>8</v>
+      </c>
+      <c r="D91">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B92" s="12">
+        <v>75</v>
+      </c>
+      <c r="C92">
+        <v>8</v>
+      </c>
+      <c r="D92">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B93" s="12">
+        <v>65</v>
+      </c>
+      <c r="C93">
+        <v>8</v>
+      </c>
+      <c r="D93">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B94" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C94">
+        <v>8</v>
+      </c>
+      <c r="D94">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B95" s="12">
+        <v>66</v>
+      </c>
+      <c r="C95">
+        <v>8</v>
+      </c>
+      <c r="D95">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B96" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="C96">
+        <v>8</v>
+      </c>
+      <c r="D96">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B97" s="12">
+        <v>83.5</v>
+      </c>
+      <c r="C97">
+        <v>8</v>
+      </c>
+      <c r="D97">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$86:B$97),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B98" s="12">
+        <v>76</v>
+      </c>
+      <c r="C98">
+        <v>9</v>
+      </c>
+      <c r="D98">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B99" s="12">
+        <v>74</v>
+      </c>
+      <c r="C99">
+        <v>9</v>
+      </c>
+      <c r="D99">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C100">
+        <v>9</v>
+      </c>
+      <c r="D100">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B101" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C101">
+        <v>9</v>
+      </c>
+      <c r="D101">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="12">
+        <v>65</v>
+      </c>
+      <c r="C102">
+        <v>9</v>
+      </c>
+      <c r="D102">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B103" s="12">
+        <v>73</v>
+      </c>
+      <c r="C103">
+        <v>9</v>
+      </c>
+      <c r="D103">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B104" s="12">
+        <v>70</v>
+      </c>
+      <c r="C104">
+        <v>9</v>
+      </c>
+      <c r="D104">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" s="12">
+        <v>80.5</v>
+      </c>
+      <c r="C105">
+        <v>9</v>
+      </c>
+      <c r="D105">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B106" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C106">
+        <v>9</v>
+      </c>
+      <c r="D106">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B107" s="12">
+        <v>78</v>
+      </c>
+      <c r="C107">
+        <v>9</v>
+      </c>
+      <c r="D107">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B108" s="12">
+        <v>77</v>
+      </c>
+      <c r="C108">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B109" s="12">
+        <v>77</v>
+      </c>
+      <c r="C109">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$98:B$109),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B110" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C110">
+        <v>10</v>
+      </c>
+      <c r="D110">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" s="12">
+        <v>65</v>
+      </c>
+      <c r="C111">
+        <v>10</v>
+      </c>
+      <c r="D111">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B112" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C112">
+        <v>10</v>
+      </c>
+      <c r="D112">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B113" s="12">
+        <v>72</v>
+      </c>
+      <c r="C113">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C114">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B115" s="12">
+        <v>64</v>
+      </c>
+      <c r="C115">
+        <v>10</v>
+      </c>
+      <c r="D115">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B116" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C116">
+        <v>10</v>
+      </c>
+      <c r="D116">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B117" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C117">
+        <v>10</v>
+      </c>
+      <c r="D117">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B118" s="12">
+        <v>83</v>
+      </c>
+      <c r="C118">
+        <v>10</v>
+      </c>
+      <c r="D118">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B119" s="12">
+        <v>74</v>
+      </c>
+      <c r="C119">
+        <v>10</v>
+      </c>
+      <c r="D119">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B120" s="12">
+        <v>73</v>
+      </c>
+      <c r="C120">
+        <v>10</v>
+      </c>
+      <c r="D120">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B121" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C121">
+        <v>10</v>
+      </c>
+      <c r="D121">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$110:B$121),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B122" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C122">
+        <v>11</v>
+      </c>
+      <c r="D122">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="12">
+        <v>70</v>
+      </c>
+      <c r="C123">
+        <v>11</v>
+      </c>
+      <c r="D123">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C124">
+        <v>11</v>
+      </c>
+      <c r="D124">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C125">
+        <v>11</v>
+      </c>
+      <c r="D125">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B126" s="12">
+        <v>68</v>
+      </c>
+      <c r="C126">
+        <v>11</v>
+      </c>
+      <c r="D126">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B127" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C127">
+        <v>11</v>
+      </c>
+      <c r="D127">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B128" s="12">
+        <v>70</v>
+      </c>
+      <c r="C128">
+        <v>11</v>
+      </c>
+      <c r="D128">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C129">
+        <v>11</v>
+      </c>
+      <c r="D129">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B130" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C130">
+        <v>11</v>
+      </c>
+      <c r="D130">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B131" s="12">
+        <v>63</v>
+      </c>
+      <c r="C131">
+        <v>11</v>
+      </c>
+      <c r="D131">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B132" s="12">
+        <v>74</v>
+      </c>
+      <c r="C132">
+        <v>11</v>
+      </c>
+      <c r="D132">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" s="12">
+        <v>76.5</v>
+      </c>
+      <c r="C133">
+        <v>11</v>
+      </c>
+      <c r="D133">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$122:B$133),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B134" s="12">
+        <v>70</v>
+      </c>
+      <c r="C134">
+        <v>12</v>
+      </c>
+      <c r="D134">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C135">
+        <v>12</v>
+      </c>
+      <c r="D135">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B136" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C136">
+        <v>12</v>
+      </c>
+      <c r="D136">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B137" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C137">
+        <v>12</v>
+      </c>
+      <c r="D137">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B138" s="12">
+        <v>73</v>
+      </c>
+      <c r="C138">
+        <v>12</v>
+      </c>
+      <c r="D138">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A139" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B139" s="12">
+        <v>64</v>
+      </c>
+      <c r="C139">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A140" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B140" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B141" s="12">
+        <v>72</v>
+      </c>
+      <c r="C141">
+        <v>12</v>
+      </c>
+      <c r="D141">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A142" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B142" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C142">
+        <v>12</v>
+      </c>
+      <c r="D142">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B143" s="12">
+        <v>65</v>
+      </c>
+      <c r="C143">
+        <v>12</v>
+      </c>
+      <c r="D143">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B144" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C144">
+        <v>12</v>
+      </c>
+      <c r="D144">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A145" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B145" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="C145">
+        <v>12</v>
+      </c>
+      <c r="D145">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$134:B$145),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A146" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C146">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A147" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="12">
+        <v>83.5</v>
+      </c>
+      <c r="C147">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A148" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B148" s="12">
+        <v>62</v>
+      </c>
+      <c r="C148">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A149" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B149" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C149">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A150" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B150" s="12">
+        <v>78</v>
+      </c>
+      <c r="C150">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A151" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B151" s="12">
+        <v>64</v>
+      </c>
+      <c r="C151">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A152" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B152" s="12">
+        <v>72</v>
+      </c>
+      <c r="C152">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A153" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B153" s="12">
+        <v>69</v>
+      </c>
+      <c r="C153">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A154" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B154" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="C154">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A155" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B155" s="12">
+        <v>75</v>
+      </c>
+      <c r="C155">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A156" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B156" s="12">
+        <v>80.5</v>
+      </c>
+      <c r="C156">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A157" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B157" s="12">
+        <v>64</v>
+      </c>
+      <c r="C157">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$146:B$157),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A158" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B158" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C158">
+        <v>14</v>
+      </c>
+      <c r="D158">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A159" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B159" s="12">
+        <v>74</v>
+      </c>
+      <c r="C159">
+        <v>14</v>
+      </c>
+      <c r="D159">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A160" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B160" s="12">
+        <v>72</v>
+      </c>
+      <c r="C160">
+        <v>14</v>
+      </c>
+      <c r="D160">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A161" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="12">
+        <v>77.5</v>
+      </c>
+      <c r="C161">
+        <v>14</v>
+      </c>
+      <c r="D161">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B162" s="12">
+        <v>63</v>
+      </c>
+      <c r="C162">
+        <v>14</v>
+      </c>
+      <c r="D162">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C163">
+        <v>14</v>
+      </c>
+      <c r="D163">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B164" s="12">
+        <v>73</v>
+      </c>
+      <c r="C164">
+        <v>14</v>
+      </c>
+      <c r="D164">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B165" s="12">
+        <v>75</v>
+      </c>
+      <c r="C165">
+        <v>14</v>
+      </c>
+      <c r="D165">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B166" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A167" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B167" s="12">
+        <v>75</v>
+      </c>
+      <c r="C167">
+        <v>14</v>
+      </c>
+      <c r="D167">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A168" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B168" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C168">
+        <v>14</v>
+      </c>
+      <c r="D168">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B169" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C169">
+        <v>14</v>
+      </c>
+      <c r="D169">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$158:B$169),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B170" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C170">
+        <v>15</v>
+      </c>
+      <c r="D170">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B171" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C171">
+        <v>15</v>
+      </c>
+      <c r="D171">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B172" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C172">
+        <v>15</v>
+      </c>
+      <c r="D172">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B173" s="12">
+        <v>65</v>
+      </c>
+      <c r="C173">
+        <v>15</v>
+      </c>
+      <c r="D173">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B174" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C174">
+        <v>15</v>
+      </c>
+      <c r="D174">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B175" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C175">
+        <v>15</v>
+      </c>
+      <c r="D175">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B176" s="12">
+        <v>72</v>
+      </c>
+      <c r="C176">
+        <v>15</v>
+      </c>
+      <c r="D176">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B177" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C177">
+        <v>15</v>
+      </c>
+      <c r="D177">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B178" s="12">
+        <v>74</v>
+      </c>
+      <c r="C178">
+        <v>15</v>
+      </c>
+      <c r="D178">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B179" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C179">
+        <v>15</v>
+      </c>
+      <c r="D179">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A180" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B180" s="12">
+        <v>67</v>
+      </c>
+      <c r="C180">
+        <v>15</v>
+      </c>
+      <c r="D180">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A181" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B181" s="12">
+        <v>71</v>
+      </c>
+      <c r="C181">
+        <v>15</v>
+      </c>
+      <c r="D181">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$170:B$181),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B182" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C182">
+        <v>16</v>
+      </c>
+      <c r="D182">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A183" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B183" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C183">
+        <v>16</v>
+      </c>
+      <c r="D183">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A184" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B184" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C184">
+        <v>16</v>
+      </c>
+      <c r="D184">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A185" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B185" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C185">
+        <v>16</v>
+      </c>
+      <c r="D185">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B186" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C186">
+        <v>16</v>
+      </c>
+      <c r="D186">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A187" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B187" s="12">
+        <v>68</v>
+      </c>
+      <c r="C187">
+        <v>16</v>
+      </c>
+      <c r="D187">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A188" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C188">
+        <v>16</v>
+      </c>
+      <c r="D188">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A189" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B189" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C189">
+        <v>16</v>
+      </c>
+      <c r="D189">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B190" s="12">
+        <v>50.5</v>
+      </c>
+      <c r="C190">
+        <v>16</v>
+      </c>
+      <c r="D190">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A191" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B191" s="12">
+        <v>72</v>
+      </c>
+      <c r="C191">
+        <v>16</v>
+      </c>
+      <c r="D191">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A192" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B192" s="12">
+        <v>64</v>
+      </c>
+      <c r="C192">
+        <v>16</v>
+      </c>
+      <c r="D192">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A193" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B193" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C193">
+        <v>16</v>
+      </c>
+      <c r="D193">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$182:B$193),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A194" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B194" s="12">
+        <v>52.5</v>
+      </c>
+      <c r="C194">
+        <v>17</v>
+      </c>
+      <c r="D194">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A195" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B195" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C195">
+        <v>17</v>
+      </c>
+      <c r="D195">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A196" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B196" s="12">
+        <v>60</v>
+      </c>
+      <c r="C196">
+        <v>17</v>
+      </c>
+      <c r="D196">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A197" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B197" s="12">
+        <v>74</v>
+      </c>
+      <c r="C197">
+        <v>17</v>
+      </c>
+      <c r="D197">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A198" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B198" s="12">
+        <v>62</v>
+      </c>
+      <c r="C198">
+        <v>17</v>
+      </c>
+      <c r="D198">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A199" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" s="12">
+        <v>76</v>
+      </c>
+      <c r="C199">
+        <v>17</v>
+      </c>
+      <c r="D199">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A200" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B200" s="12">
+        <v>82</v>
+      </c>
+      <c r="C200">
+        <v>17</v>
+      </c>
+      <c r="D200">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A201" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B201" s="12">
+        <v>81</v>
+      </c>
+      <c r="C201">
+        <v>17</v>
+      </c>
+      <c r="D201">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A202" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B202" s="12">
+        <v>60.5</v>
+      </c>
+      <c r="C202">
+        <v>17</v>
+      </c>
+      <c r="D202">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A203" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B203" s="12">
+        <v>74</v>
+      </c>
+      <c r="C203">
+        <v>17</v>
+      </c>
+      <c r="D203">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A204" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B204" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C204">
+        <v>17</v>
+      </c>
+      <c r="D204">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A205" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B205" s="12">
+        <v>86</v>
+      </c>
+      <c r="C205">
+        <v>17</v>
+      </c>
+      <c r="D205">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$194:B$205),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A206" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B206" s="12">
+        <v>61</v>
+      </c>
+      <c r="C206">
+        <v>18</v>
+      </c>
+      <c r="D206">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A207" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B207" s="12">
+        <v>73</v>
+      </c>
+      <c r="C207">
+        <v>18</v>
+      </c>
+      <c r="D207">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A208" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B208" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C208">
+        <v>18</v>
+      </c>
+      <c r="D208">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A209" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B209" s="12">
+        <v>88</v>
+      </c>
+      <c r="C209">
+        <v>18</v>
+      </c>
+      <c r="D209">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A210" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B210" s="12">
+        <v>72</v>
+      </c>
+      <c r="C210">
+        <v>18</v>
+      </c>
+      <c r="D210">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A211" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B211" s="12">
+        <v>72</v>
+      </c>
+      <c r="C211">
+        <v>18</v>
+      </c>
+      <c r="D211">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A212" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B212" s="12">
+        <v>63</v>
+      </c>
+      <c r="C212">
+        <v>18</v>
+      </c>
+      <c r="D212">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A213" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B213" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C213">
+        <v>18</v>
+      </c>
+      <c r="D213">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A214" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B214" s="12">
+        <v>68</v>
+      </c>
+      <c r="C214">
+        <v>18</v>
+      </c>
+      <c r="D214">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A215" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B215" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C215">
+        <v>18</v>
+      </c>
+      <c r="D215">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A216" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B216" s="12">
+        <v>66</v>
+      </c>
+      <c r="C216">
+        <v>18</v>
+      </c>
+      <c r="D216">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A217" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B217" s="12">
+        <v>65</v>
+      </c>
+      <c r="C217">
+        <v>18</v>
+      </c>
+      <c r="D217">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$206:B$217),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A218" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B218" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C218">
+        <v>19</v>
+      </c>
+      <c r="D218">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A219" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B219" s="12">
+        <v>64</v>
+      </c>
+      <c r="C219">
+        <v>19</v>
+      </c>
+      <c r="D219">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A220" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B220" s="12">
+        <v>58</v>
+      </c>
+      <c r="C220">
+        <v>19</v>
+      </c>
+      <c r="D220">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A221" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B221" s="12">
+        <v>67</v>
+      </c>
+      <c r="C221">
+        <v>19</v>
+      </c>
+      <c r="D221">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A222" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B222" s="12">
+        <v>83</v>
+      </c>
+      <c r="C222">
+        <v>19</v>
+      </c>
+      <c r="D222">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A223" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B223" s="12">
+        <v>62.5</v>
+      </c>
+      <c r="C223">
+        <v>19</v>
+      </c>
+      <c r="D223">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A224" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B224" s="12">
+        <v>68</v>
+      </c>
+      <c r="C224">
+        <v>19</v>
+      </c>
+      <c r="D224">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A225" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B225" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C225">
+        <v>19</v>
+      </c>
+      <c r="D225">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A226" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B226" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C226">
+        <v>19</v>
+      </c>
+      <c r="D226">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A227" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B227" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C227">
+        <v>19</v>
+      </c>
+      <c r="D227">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A228" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B228" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C228">
+        <v>19</v>
+      </c>
+      <c r="D228">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A229" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B229" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C229">
+        <v>19</v>
+      </c>
+      <c r="D229">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$218:B$229),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A230" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B230" s="12">
+        <v>89</v>
+      </c>
+      <c r="C230">
+        <v>20</v>
+      </c>
+      <c r="D230">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A231" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B231" s="12">
+        <v>76.5</v>
+      </c>
+      <c r="C231">
+        <v>20</v>
+      </c>
+      <c r="D231">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A232" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B232" s="12">
+        <v>72</v>
+      </c>
+      <c r="C232">
+        <v>20</v>
+      </c>
+      <c r="D232">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A233" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B233" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C233">
+        <v>20</v>
+      </c>
+      <c r="D233">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A234" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B234" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C234">
+        <v>20</v>
+      </c>
+      <c r="D234">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A235" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B235" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C235">
+        <v>20</v>
+      </c>
+      <c r="D235">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A236" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B236" s="12">
+        <v>56</v>
+      </c>
+      <c r="C236">
+        <v>20</v>
+      </c>
+      <c r="D236">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A237" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B237" s="12">
+        <v>73</v>
+      </c>
+      <c r="C237">
+        <v>20</v>
+      </c>
+      <c r="D237">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A238" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B238" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C238">
+        <v>20</v>
+      </c>
+      <c r="D238">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A239" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B239" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C239">
+        <v>20</v>
+      </c>
+      <c r="D239">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A240" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B240" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C240">
+        <v>20</v>
+      </c>
+      <c r="D240">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A241" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B241" s="12">
+        <v>83</v>
+      </c>
+      <c r="C241">
+        <v>20</v>
+      </c>
+      <c r="D241">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$230:B$241),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A242" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B242" s="12">
+        <v>74</v>
+      </c>
+      <c r="C242">
+        <v>21</v>
+      </c>
+      <c r="D242">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A243" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B243" s="12">
+        <v>78</v>
+      </c>
+      <c r="C243">
+        <v>21</v>
+      </c>
+      <c r="D243">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A244" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B244" s="12">
+        <v>64.5</v>
+      </c>
+      <c r="C244">
+        <v>21</v>
+      </c>
+      <c r="D244">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A245" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B245" s="12">
+        <v>72</v>
+      </c>
+      <c r="C245">
+        <v>21</v>
+      </c>
+      <c r="D245">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A246" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B246" s="12">
+        <v>69</v>
+      </c>
+      <c r="C246">
+        <v>21</v>
+      </c>
+      <c r="D246">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A247" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B247" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C247">
+        <v>21</v>
+      </c>
+      <c r="D247">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A248" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B248" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C248">
+        <v>21</v>
+      </c>
+      <c r="D248">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A249" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B249" s="12">
+        <v>70</v>
+      </c>
+      <c r="C249">
+        <v>21</v>
+      </c>
+      <c r="D249">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A250" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B250" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C250">
+        <v>21</v>
+      </c>
+      <c r="D250">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A251" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B251" s="12">
+        <v>68</v>
+      </c>
+      <c r="C251">
+        <v>21</v>
+      </c>
+      <c r="D251">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A252" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B252" s="12">
+        <v>67</v>
+      </c>
+      <c r="C252">
+        <v>21</v>
+      </c>
+      <c r="D252">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A253" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B253" s="12">
+        <v>89.5</v>
+      </c>
+      <c r="C253">
+        <v>21</v>
+      </c>
+      <c r="D253">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$242:B$253),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A254" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B254" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C254">
+        <v>22</v>
+      </c>
+      <c r="D254">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A255" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B255" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C255">
+        <v>22</v>
+      </c>
+      <c r="D255">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A256" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B256" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C256">
+        <v>22</v>
+      </c>
+      <c r="D256">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A257" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B257" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C257">
+        <v>22</v>
+      </c>
+      <c r="D257">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A258" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B258" s="12">
+        <v>72.5</v>
+      </c>
+      <c r="C258">
+        <v>22</v>
+      </c>
+      <c r="D258">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A259" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B259" s="12">
+        <v>69</v>
+      </c>
+      <c r="C259">
+        <v>22</v>
+      </c>
+      <c r="D259">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A260" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B260" s="12">
+        <v>71</v>
+      </c>
+      <c r="C260">
+        <v>22</v>
+      </c>
+      <c r="D260">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A261" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B261" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C261">
+        <v>22</v>
+      </c>
+      <c r="D261">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A262" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B262" s="12">
+        <v>82.5</v>
+      </c>
+      <c r="C262">
+        <v>22</v>
+      </c>
+      <c r="D262">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A263" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B263" s="12">
+        <v>67</v>
+      </c>
+      <c r="C263">
+        <v>22</v>
+      </c>
+      <c r="D263">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A264" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B264" s="12">
+        <v>68</v>
+      </c>
+      <c r="C264">
+        <v>22</v>
+      </c>
+      <c r="D264">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A265" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B265" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C265">
+        <v>22</v>
+      </c>
+      <c r="D265">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$254:B$265),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A266" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B266" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C266">
+        <v>23</v>
+      </c>
+      <c r="D266">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A267" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B267" s="12">
+        <v>66</v>
+      </c>
+      <c r="C267">
+        <v>23</v>
+      </c>
+      <c r="D267">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A268" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B268" s="12">
+        <v>69</v>
+      </c>
+      <c r="C268">
+        <v>23</v>
+      </c>
+      <c r="D268">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A269" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B269" s="12">
+        <v>70</v>
+      </c>
+      <c r="C269">
+        <v>23</v>
+      </c>
+      <c r="D269">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A270" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B270" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C270">
+        <v>23</v>
+      </c>
+      <c r="D270">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A271" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B271" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C271">
+        <v>23</v>
+      </c>
+      <c r="D271">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A272" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B272" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C272">
+        <v>23</v>
+      </c>
+      <c r="D272">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A273" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B273" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C273">
+        <v>23</v>
+      </c>
+      <c r="D273">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A274" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B274" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C274">
+        <v>23</v>
+      </c>
+      <c r="D274">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A275" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B275" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C275">
+        <v>23</v>
+      </c>
+      <c r="D275">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A276" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B276" s="12">
+        <v>78</v>
+      </c>
+      <c r="C276">
+        <v>23</v>
+      </c>
+      <c r="D276">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A277" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B277" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="C277">
+        <v>23</v>
+      </c>
+      <c r="D277">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$266:B$277),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A278" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B278" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C278">
+        <v>24</v>
+      </c>
+      <c r="D278">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A279" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B279" s="12">
+        <v>75.5</v>
+      </c>
+      <c r="C279">
+        <v>24</v>
+      </c>
+      <c r="D279">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A280" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B280" s="12">
+        <v>73.5</v>
+      </c>
+      <c r="C280">
+        <v>24</v>
+      </c>
+      <c r="D280">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A281" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B281" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C281">
+        <v>24</v>
+      </c>
+      <c r="D281">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A282" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B282" s="12">
+        <v>80.5</v>
+      </c>
+      <c r="C282">
+        <v>24</v>
+      </c>
+      <c r="D282">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A283" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B283" s="12">
+        <v>61</v>
+      </c>
+      <c r="C283">
+        <v>24</v>
+      </c>
+      <c r="D283">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A284" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B284" s="12">
+        <v>67</v>
+      </c>
+      <c r="C284">
+        <v>24</v>
+      </c>
+      <c r="D284">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A285" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B285" s="12">
+        <v>83</v>
+      </c>
+      <c r="C285">
+        <v>24</v>
+      </c>
+      <c r="D285">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A286" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B286" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C286">
+        <v>24</v>
+      </c>
+      <c r="D286">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A287" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B287" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C287">
+        <v>24</v>
+      </c>
+      <c r="D287">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A288" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B288" s="12">
+        <v>51.5</v>
+      </c>
+      <c r="C288">
+        <v>24</v>
+      </c>
+      <c r="D288">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A289" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B289" s="12">
+        <v>73</v>
+      </c>
+      <c r="C289">
+        <v>24</v>
+      </c>
+      <c r="D289">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$278:B$289),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A290" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B290" s="12">
+        <v>68</v>
+      </c>
+      <c r="C290">
+        <v>25</v>
+      </c>
+      <c r="D290">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A291" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B291" s="12">
+        <v>66</v>
+      </c>
+      <c r="C291">
+        <v>25</v>
+      </c>
+      <c r="D291">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A292" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B292" s="12">
+        <v>77</v>
+      </c>
+      <c r="C292">
+        <v>25</v>
+      </c>
+      <c r="D292">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A293" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B293" s="12">
+        <v>71.5</v>
+      </c>
+      <c r="C293">
+        <v>25</v>
+      </c>
+      <c r="D293">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A294" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B294" s="12">
+        <v>58</v>
+      </c>
+      <c r="C294">
+        <v>25</v>
+      </c>
+      <c r="D294">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A295" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B295" s="12">
+        <v>61</v>
+      </c>
+      <c r="C295">
+        <v>25</v>
+      </c>
+      <c r="D295">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A296" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B296" s="12">
+        <v>80.5</v>
+      </c>
+      <c r="C296">
+        <v>25</v>
+      </c>
+      <c r="D296">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A297" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B297" s="12">
+        <v>79</v>
+      </c>
+      <c r="C297">
+        <v>25</v>
+      </c>
+      <c r="D297">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A298" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B298" s="12">
+        <v>73</v>
+      </c>
+      <c r="C298">
+        <v>25</v>
+      </c>
+      <c r="D298">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A299" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B299" s="12">
+        <v>74</v>
+      </c>
+      <c r="C299">
+        <v>25</v>
+      </c>
+      <c r="D299">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A300" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B300" s="12">
+        <v>59.5</v>
+      </c>
+      <c r="C300">
+        <v>25</v>
+      </c>
+      <c r="D300">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A301" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B301" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C301">
+        <v>25</v>
+      </c>
+      <c r="D301">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$290:B$301),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A302" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B302" s="12">
+        <v>71</v>
+      </c>
+      <c r="C302">
+        <v>26</v>
+      </c>
+      <c r="D302">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A303" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B303" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C303">
+        <v>26</v>
+      </c>
+      <c r="D303">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A304" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B304" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C304">
+        <v>26</v>
+      </c>
+      <c r="D304">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A305" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B305" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C305">
+        <v>26</v>
+      </c>
+      <c r="D305">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A306" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B306" s="12">
+        <v>67.5</v>
+      </c>
+      <c r="C306">
+        <v>26</v>
+      </c>
+      <c r="D306">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A307" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B307" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C307">
+        <v>26</v>
+      </c>
+      <c r="D307">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A308" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B308" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C308">
+        <v>26</v>
+      </c>
+      <c r="D308">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A309" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B309" s="12">
+        <v>72</v>
+      </c>
+      <c r="C309">
+        <v>26</v>
+      </c>
+      <c r="D309">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A310" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B310" s="12">
+        <v>53</v>
+      </c>
+      <c r="C310">
+        <v>26</v>
+      </c>
+      <c r="D310">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A311" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B311" s="12">
+        <v>73</v>
+      </c>
+      <c r="C311">
+        <v>26</v>
+      </c>
+      <c r="D311">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A312" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B312" s="12">
+        <v>61.5</v>
+      </c>
+      <c r="C312">
+        <v>26</v>
+      </c>
+      <c r="D312">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A313" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B313" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C313">
+        <v>26</v>
+      </c>
+      <c r="D313">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$302:B$313),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A314" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B314" s="12">
+        <v>79</v>
+      </c>
+      <c r="C314">
+        <v>27</v>
+      </c>
+      <c r="D314">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A315" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B315" s="12">
+        <v>67</v>
+      </c>
+      <c r="C315">
+        <v>27</v>
+      </c>
+      <c r="D315">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A316" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B316" s="12">
+        <v>68</v>
+      </c>
+      <c r="C316">
+        <v>27</v>
+      </c>
+      <c r="D316">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A317" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B317" s="12">
+        <v>64</v>
+      </c>
+      <c r="C317">
+        <v>27</v>
+      </c>
+      <c r="D317">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A318" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B318" s="12">
+        <v>63.5</v>
+      </c>
+      <c r="C318">
+        <v>27</v>
+      </c>
+      <c r="D318">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A319" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="B319" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C319">
+        <v>27</v>
+      </c>
+      <c r="D319">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A320" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B320" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C320">
+        <v>27</v>
+      </c>
+      <c r="D320">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A321" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B321" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="C321">
+        <v>27</v>
+      </c>
+      <c r="D321">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A322" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B322" s="12">
+        <v>68</v>
+      </c>
+      <c r="C322">
+        <v>27</v>
+      </c>
+      <c r="D322">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A323" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B323" s="12">
+        <v>70.5</v>
+      </c>
+      <c r="C323">
+        <v>27</v>
+      </c>
+      <c r="D323">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A324" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B324" s="12">
+        <v>66</v>
+      </c>
+      <c r="C324">
+        <v>27</v>
+      </c>
+      <c r="D324">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A325" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B325" s="12">
+        <v>71</v>
+      </c>
+      <c r="C325">
+        <v>27</v>
+      </c>
+      <c r="D325">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$314:B$325),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A326" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="B326" s="12">
+        <v>81.5</v>
+      </c>
+      <c r="C326">
+        <v>28</v>
+      </c>
+      <c r="D326">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A327" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B327" s="12">
+        <v>70</v>
+      </c>
+      <c r="C327">
+        <v>28</v>
+      </c>
+      <c r="D327">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A328" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B328" s="12">
+        <v>63</v>
+      </c>
+      <c r="C328">
+        <v>28</v>
+      </c>
+      <c r="D328">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A329" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="B329" s="12">
+        <v>75</v>
+      </c>
+      <c r="C329">
+        <v>28</v>
+      </c>
+      <c r="D329">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A330" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330" s="12">
+        <v>73</v>
+      </c>
+      <c r="C330">
+        <v>28</v>
+      </c>
+      <c r="D330">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A331" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B331" s="12">
+        <v>82.5</v>
+      </c>
+      <c r="C331">
+        <v>28</v>
+      </c>
+      <c r="D331">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A332" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B332" s="12">
+        <v>68.5</v>
+      </c>
+      <c r="C332">
+        <v>28</v>
+      </c>
+      <c r="D332">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A333" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B333" s="12">
+        <v>78.5</v>
+      </c>
+      <c r="C333">
+        <v>28</v>
+      </c>
+      <c r="D333">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A334" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B334" s="12">
+        <v>65.5</v>
+      </c>
+      <c r="C334">
+        <v>28</v>
+      </c>
+      <c r="D334">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A335" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="B335" s="12">
+        <v>69.5</v>
+      </c>
+      <c r="C335">
+        <v>28</v>
+      </c>
+      <c r="D335">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A336" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B336" s="12">
+        <v>59</v>
+      </c>
+      <c r="C336">
+        <v>28</v>
+      </c>
+      <c r="D336">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A337" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B337" s="12">
+        <v>74.5</v>
+      </c>
+      <c r="C337">
+        <v>28</v>
+      </c>
+      <c r="D337">
+        <f>IF(PUNTEGGIO_GIORNATA[[#This Row],[PUNTEGGIO]]=MAX(B$326:B$337),1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19081698-A6AA-4AE1-B9EC-855193AE357C}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B4" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="B11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="B12" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B13" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>789</v>
+      </c>
+      <c r="B14" s="14">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
